--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-31.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-31.xlsx
@@ -26223,157 +26223,157 @@
         <v>437</v>
       </c>
       <c r="F125">
-        <v>1.1</v>
+        <v>1.43</v>
       </c>
       <c r="G125">
-        <v>990</v>
+        <v>1.48</v>
       </c>
       <c r="H125">
-        <v>1.04</v>
+        <v>7.6</v>
       </c>
       <c r="I125">
-        <v>870</v>
+        <v>9</v>
       </c>
       <c r="J125">
-        <v>1.21</v>
+        <v>4.8</v>
       </c>
       <c r="K125">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="L125">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="M125">
-        <v>30</v>
+        <v>2.46</v>
       </c>
       <c r="N125">
-        <v>1.05</v>
+        <v>1.69</v>
       </c>
       <c r="O125">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="P125">
-        <v>1.12</v>
+        <v>1.85</v>
       </c>
       <c r="Q125">
-        <v>20</v>
+        <v>2.1</v>
       </c>
       <c r="R125">
-        <v>1.12</v>
+        <v>1.92</v>
       </c>
       <c r="S125">
-        <v>20</v>
+        <v>2.18</v>
       </c>
       <c r="T125">
-        <v>1.1</v>
+        <v>17</v>
       </c>
       <c r="U125">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="V125">
-        <v>1.1</v>
+        <v>25</v>
       </c>
       <c r="W125">
         <v>980</v>
       </c>
       <c r="X125">
-        <v>1.1</v>
+        <v>10.5</v>
       </c>
       <c r="Y125">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="Z125">
-        <v>1.1</v>
+        <v>8</v>
       </c>
       <c r="AA125">
         <v>1000</v>
       </c>
       <c r="AB125">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC125">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD125">
-        <v>1.1</v>
+        <v>10</v>
       </c>
       <c r="AE125">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AF125">
-        <v>1.1</v>
+        <v>26</v>
       </c>
       <c r="AG125">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AH125">
-        <v>1.1</v>
+        <v>10.5</v>
       </c>
       <c r="AI125">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ125">
-        <v>1.1</v>
+        <v>7.8</v>
       </c>
       <c r="AK125">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AL125">
-        <v>1.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM125">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AN125">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="AO125">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AP125">
-        <v>1.1</v>
+        <v>10.5</v>
       </c>
       <c r="AQ125">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AR125">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="AS125">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AT125">
-        <v>1.1</v>
+        <v>13</v>
       </c>
       <c r="AU125">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AV125">
-        <v>1.1</v>
+        <v>28</v>
       </c>
       <c r="AW125">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AX125">
-        <v>1.1</v>
+        <v>7.8</v>
       </c>
       <c r="AY125">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AZ125">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="BA125">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="BB125">
-        <v>1.1</v>
+        <v>8.4</v>
       </c>
       <c r="BC125">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="BD125">
-        <v>1.1</v>
+        <v>8.4</v>
       </c>
       <c r="BE125">
         <v>1000</v>
@@ -26420,37 +26420,37 @@
         <v>438</v>
       </c>
       <c r="F126">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="G126">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="H126">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="I126">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J126">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K126">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L126">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="M126">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="N126">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="O126">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="P126">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q126">
         <v>1.95</v>
@@ -26459,118 +26459,118 @@
         <v>2.04</v>
       </c>
       <c r="S126">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T126">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="U126">
         <v>17</v>
       </c>
       <c r="V126">
+        <v>19.5</v>
+      </c>
+      <c r="W126">
         <v>21</v>
       </c>
-      <c r="W126">
-        <v>23</v>
-      </c>
       <c r="X126">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Y126">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Z126">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AA126">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB126">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC126">
+        <v>8.6</v>
+      </c>
+      <c r="AD126">
         <v>9.199999999999999</v>
       </c>
-      <c r="AD126">
+      <c r="AE126">
         <v>9.4</v>
-      </c>
-      <c r="AE126">
-        <v>9.800000000000001</v>
       </c>
       <c r="AF126">
         <v>21</v>
       </c>
       <c r="AG126">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AH126">
         <v>70</v>
       </c>
       <c r="AI126">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ126">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AK126">
         <v>9.199999999999999</v>
       </c>
-      <c r="AK126">
+      <c r="AL126">
         <v>9.6</v>
       </c>
-      <c r="AL126">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AM126">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AN126">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO126">
         <v>22</v>
       </c>
       <c r="AP126">
+        <v>60</v>
+      </c>
+      <c r="AQ126">
         <v>70</v>
       </c>
-      <c r="AQ126">
-        <v>85</v>
-      </c>
       <c r="AR126">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AS126">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AT126">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AU126">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AV126">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW126">
         <v>32</v>
       </c>
       <c r="AX126">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AY126">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AZ126">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="BA126">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BB126">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BC126">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BD126">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="BE126">
         <v>1000</v>
@@ -26617,157 +26617,157 @@
         <v>439</v>
       </c>
       <c r="F127">
-        <v>1.15</v>
+        <v>1.91</v>
       </c>
       <c r="G127">
-        <v>1000</v>
+        <v>1.96</v>
       </c>
       <c r="H127">
-        <v>1.04</v>
+        <v>5.1</v>
       </c>
       <c r="I127">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="J127">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="K127">
-        <v>980</v>
+        <v>3.55</v>
       </c>
       <c r="L127">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="M127">
-        <v>110</v>
+        <v>1.64</v>
       </c>
       <c r="N127">
-        <v>1.1</v>
+        <v>2.58</v>
       </c>
       <c r="O127">
-        <v>4.6</v>
+        <v>2.68</v>
       </c>
       <c r="P127">
-        <v>1.1</v>
+        <v>2.16</v>
       </c>
       <c r="Q127">
-        <v>11</v>
+        <v>2.34</v>
       </c>
       <c r="R127">
-        <v>1.14</v>
+        <v>1.74</v>
       </c>
       <c r="S127">
-        <v>11</v>
+        <v>1.85</v>
       </c>
       <c r="T127">
-        <v>1.27</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U127">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="V127">
-        <v>1.27</v>
+        <v>10.5</v>
       </c>
       <c r="W127">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="X127">
-        <v>1.24</v>
+        <v>4.9</v>
       </c>
       <c r="Y127">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="Z127">
-        <v>1.27</v>
+        <v>5.2</v>
       </c>
       <c r="AA127">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB127">
-        <v>1.27</v>
+        <v>6.2</v>
       </c>
       <c r="AC127">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="AD127">
-        <v>1.27</v>
+        <v>7</v>
       </c>
       <c r="AE127">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF127">
-        <v>1.21</v>
+        <v>16</v>
       </c>
       <c r="AG127">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AH127">
-        <v>1.27</v>
+        <v>5.1</v>
       </c>
       <c r="AI127">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ127">
-        <v>1.27</v>
+        <v>8.6</v>
       </c>
       <c r="AK127">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AL127">
-        <v>1.27</v>
+        <v>9.4</v>
       </c>
       <c r="AM127">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AN127">
-        <v>1.22</v>
+        <v>20</v>
       </c>
       <c r="AO127">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AP127">
-        <v>1.27</v>
+        <v>5.2</v>
       </c>
       <c r="AQ127">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR127">
-        <v>1.21</v>
+        <v>15.5</v>
       </c>
       <c r="AS127">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AT127">
-        <v>1.22</v>
+        <v>18</v>
       </c>
       <c r="AU127">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AV127">
-        <v>1.27</v>
+        <v>5</v>
       </c>
       <c r="AW127">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AX127">
-        <v>1.27</v>
+        <v>5.3</v>
       </c>
       <c r="AY127">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ127">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="BA127">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="BB127">
-        <v>1.27</v>
+        <v>5.2</v>
       </c>
       <c r="BC127">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD127">
-        <v>1.27</v>
+        <v>5.4</v>
       </c>
       <c r="BE127">
         <v>1000</v>
@@ -26814,157 +26814,157 @@
         <v>440</v>
       </c>
       <c r="F128">
-        <v>2.38</v>
+        <v>3.7</v>
       </c>
       <c r="G128">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="H128">
-        <v>1.57</v>
+        <v>2.44</v>
       </c>
       <c r="I128">
-        <v>1000</v>
+        <v>2.54</v>
       </c>
       <c r="J128">
-        <v>1.2</v>
+        <v>2.94</v>
       </c>
       <c r="K128">
-        <v>950</v>
+        <v>3.1</v>
       </c>
       <c r="L128">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="M128">
-        <v>12.5</v>
+        <v>1.43</v>
       </c>
       <c r="N128">
-        <v>1.1</v>
+        <v>3.35</v>
       </c>
       <c r="O128">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="P128">
-        <v>1.11</v>
+        <v>2.4</v>
       </c>
       <c r="Q128">
+        <v>2.56</v>
+      </c>
+      <c r="R128">
+        <v>1.64</v>
+      </c>
+      <c r="S128">
+        <v>1.72</v>
+      </c>
+      <c r="T128">
+        <v>6.4</v>
+      </c>
+      <c r="U128">
+        <v>7.4</v>
+      </c>
+      <c r="V128">
+        <v>6</v>
+      </c>
+      <c r="W128">
+        <v>7</v>
+      </c>
+      <c r="X128">
+        <v>12</v>
+      </c>
+      <c r="Y128">
+        <v>14.5</v>
+      </c>
+      <c r="Z128">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA128">
+        <v>42</v>
+      </c>
+      <c r="AB128">
+        <v>8</v>
+      </c>
+      <c r="AC128">
+        <v>9</v>
+      </c>
+      <c r="AD128">
+        <v>6.6</v>
+      </c>
+      <c r="AE128">
+        <v>7.6</v>
+      </c>
+      <c r="AF128">
+        <v>12</v>
+      </c>
+      <c r="AG128">
+        <v>13.5</v>
+      </c>
+      <c r="AH128">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AI128">
+        <v>44</v>
+      </c>
+      <c r="AJ128">
+        <v>7.8</v>
+      </c>
+      <c r="AK128">
+        <v>25</v>
+      </c>
+      <c r="AL128">
+        <v>15.5</v>
+      </c>
+      <c r="AM128">
+        <v>18.5</v>
+      </c>
+      <c r="AN128">
+        <v>8.6</v>
+      </c>
+      <c r="AO128">
+        <v>32</v>
+      </c>
+      <c r="AP128">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AQ128">
+        <v>980</v>
+      </c>
+      <c r="AR128">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AS128">
+        <v>980</v>
+      </c>
+      <c r="AT128">
+        <v>9.6</v>
+      </c>
+      <c r="AU128">
+        <v>980</v>
+      </c>
+      <c r="AV128">
+        <v>10</v>
+      </c>
+      <c r="AW128">
+        <v>980</v>
+      </c>
+      <c r="AX128">
+        <v>10.5</v>
+      </c>
+      <c r="AY128">
+        <v>980</v>
+      </c>
+      <c r="AZ128">
+        <v>10</v>
+      </c>
+      <c r="BA128">
+        <v>130</v>
+      </c>
+      <c r="BB128">
+        <v>9</v>
+      </c>
+      <c r="BC128">
+        <v>50</v>
+      </c>
+      <c r="BD128">
         <v>11</v>
-      </c>
-      <c r="R128">
-        <v>1.14</v>
-      </c>
-      <c r="S128">
-        <v>11</v>
-      </c>
-      <c r="T128">
-        <v>1.11</v>
-      </c>
-      <c r="U128">
-        <v>980</v>
-      </c>
-      <c r="V128">
-        <v>1.31</v>
-      </c>
-      <c r="W128">
-        <v>980</v>
-      </c>
-      <c r="X128">
-        <v>1.21</v>
-      </c>
-      <c r="Y128">
-        <v>980</v>
-      </c>
-      <c r="Z128">
-        <v>1.31</v>
-      </c>
-      <c r="AA128">
-        <v>1000</v>
-      </c>
-      <c r="AB128">
-        <v>1.31</v>
-      </c>
-      <c r="AC128">
-        <v>980</v>
-      </c>
-      <c r="AD128">
-        <v>1.31</v>
-      </c>
-      <c r="AE128">
-        <v>980</v>
-      </c>
-      <c r="AF128">
-        <v>1.2</v>
-      </c>
-      <c r="AG128">
-        <v>980</v>
-      </c>
-      <c r="AH128">
-        <v>1.11</v>
-      </c>
-      <c r="AI128">
-        <v>1000</v>
-      </c>
-      <c r="AJ128">
-        <v>1.1</v>
-      </c>
-      <c r="AK128">
-        <v>980</v>
-      </c>
-      <c r="AL128">
-        <v>1.1</v>
-      </c>
-      <c r="AM128">
-        <v>980</v>
-      </c>
-      <c r="AN128">
-        <v>1.11</v>
-      </c>
-      <c r="AO128">
-        <v>980</v>
-      </c>
-      <c r="AP128">
-        <v>1.11</v>
-      </c>
-      <c r="AQ128">
-        <v>1000</v>
-      </c>
-      <c r="AR128">
-        <v>1.11</v>
-      </c>
-      <c r="AS128">
-        <v>1000</v>
-      </c>
-      <c r="AT128">
-        <v>1.11</v>
-      </c>
-      <c r="AU128">
-        <v>1000</v>
-      </c>
-      <c r="AV128">
-        <v>1.11</v>
-      </c>
-      <c r="AW128">
-        <v>1000</v>
-      </c>
-      <c r="AX128">
-        <v>1.31</v>
-      </c>
-      <c r="AY128">
-        <v>1000</v>
-      </c>
-      <c r="AZ128">
-        <v>1.11</v>
-      </c>
-      <c r="BA128">
-        <v>1000</v>
-      </c>
-      <c r="BB128">
-        <v>1.11</v>
-      </c>
-      <c r="BC128">
-        <v>1000</v>
-      </c>
-      <c r="BD128">
-        <v>2.48</v>
       </c>
       <c r="BE128">
         <v>1000</v>
@@ -27011,157 +27011,157 @@
         <v>441</v>
       </c>
       <c r="F129">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="G129">
-        <v>480</v>
+        <v>1.66</v>
       </c>
       <c r="H129">
-        <v>5.1</v>
+        <v>7.4</v>
       </c>
       <c r="I129">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="J129">
-        <v>2.74</v>
+        <v>3.8</v>
       </c>
       <c r="K129">
-        <v>990</v>
+        <v>3.9</v>
       </c>
       <c r="L129">
-        <v>1.28</v>
+        <v>1.63</v>
       </c>
       <c r="M129">
-        <v>2.18</v>
+        <v>1.67</v>
       </c>
       <c r="N129">
-        <v>1.86</v>
+        <v>2.48</v>
       </c>
       <c r="O129">
-        <v>4.6</v>
+        <v>2.58</v>
       </c>
       <c r="P129">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="Q129">
-        <v>2.94</v>
+        <v>2.6</v>
       </c>
       <c r="R129">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="S129">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="T129">
+        <v>8.6</v>
+      </c>
+      <c r="U129">
+        <v>980</v>
+      </c>
+      <c r="V129">
+        <v>14.5</v>
+      </c>
+      <c r="W129">
+        <v>22</v>
+      </c>
+      <c r="X129">
+        <v>7.8</v>
+      </c>
+      <c r="Y129">
+        <v>980</v>
+      </c>
+      <c r="Z129">
+        <v>7.8</v>
+      </c>
+      <c r="AA129">
+        <v>980</v>
+      </c>
+      <c r="AB129">
+        <v>5.5</v>
+      </c>
+      <c r="AC129">
+        <v>6.2</v>
+      </c>
+      <c r="AD129">
+        <v>7.8</v>
+      </c>
+      <c r="AE129">
+        <v>980</v>
+      </c>
+      <c r="AF129">
+        <v>6.6</v>
+      </c>
+      <c r="AG129">
+        <v>980</v>
+      </c>
+      <c r="AH129">
         <v>7.6</v>
       </c>
-      <c r="U129">
-        <v>11.5</v>
-      </c>
-      <c r="V129">
-        <v>13.5</v>
-      </c>
-      <c r="W129">
-        <v>21</v>
-      </c>
-      <c r="X129">
-        <v>1.01</v>
-      </c>
-      <c r="Y129">
-        <v>1000</v>
-      </c>
-      <c r="Z129">
-        <v>1.01</v>
-      </c>
-      <c r="AA129">
-        <v>1000</v>
-      </c>
-      <c r="AB129">
-        <v>4.9</v>
-      </c>
-      <c r="AC129">
-        <v>7.4</v>
-      </c>
-      <c r="AD129">
+      <c r="AI129">
+        <v>980</v>
+      </c>
+      <c r="AJ129">
         <v>6.8</v>
       </c>
-      <c r="AE129">
-        <v>10.5</v>
-      </c>
-      <c r="AF129">
-        <v>23</v>
-      </c>
-      <c r="AG129">
-        <v>38</v>
-      </c>
-      <c r="AH129">
-        <v>1.01</v>
-      </c>
-      <c r="AI129">
-        <v>1000</v>
-      </c>
-      <c r="AJ129">
-        <v>6.4</v>
-      </c>
       <c r="AK129">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AL129">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AM129">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AN129">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AO129">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP129">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="AQ129">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR129">
         <v>12</v>
       </c>
       <c r="AS129">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AT129">
-        <v>16</v>
+        <v>6.4</v>
       </c>
       <c r="AU129">
         <v>26</v>
       </c>
       <c r="AV129">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AW129">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX129">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="AY129">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ129">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="BA129">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB129">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="BC129">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD129">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="BE129">
         <v>1000</v>
@@ -27405,55 +27405,55 @@
         <v>443</v>
       </c>
       <c r="F131">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="G131">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="H131">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I131">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J131">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K131">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L131">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="M131">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="N131">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="O131">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="P131">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Q131">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="R131">
-        <v>2.26</v>
+        <v>2.54</v>
       </c>
       <c r="S131">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="T131">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U131">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V131">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W131">
         <v>26</v>
@@ -27465,13 +27465,13 @@
         <v>44</v>
       </c>
       <c r="Z131">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA131">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB131">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC131">
         <v>13</v>
@@ -27483,22 +27483,22 @@
         <v>10.5</v>
       </c>
       <c r="AF131">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG131">
         <v>20</v>
       </c>
       <c r="AH131">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AI131">
         <v>55</v>
       </c>
       <c r="AJ131">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AK131">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL131">
         <v>9.4</v>
@@ -27507,22 +27507,22 @@
         <v>10</v>
       </c>
       <c r="AN131">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO131">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP131">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AQ131">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AR131">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AS131">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AT131">
         <v>14</v>
@@ -27531,31 +27531,31 @@
         <v>15.5</v>
       </c>
       <c r="AV131">
+        <v>21</v>
+      </c>
+      <c r="AW131">
         <v>23</v>
       </c>
-      <c r="AW131">
-        <v>26</v>
-      </c>
       <c r="AX131">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AY131">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AZ131">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="BA131">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="BB131">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BC131">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="BD131">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BE131">
         <v>980</v>
@@ -27602,28 +27602,28 @@
         <v>444</v>
       </c>
       <c r="F132">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G132">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="H132">
         <v>1.04</v>
       </c>
       <c r="I132">
-        <v>870</v>
+        <v>6.4</v>
       </c>
       <c r="J132">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="K132">
-        <v>330</v>
+        <v>3.95</v>
       </c>
       <c r="L132">
         <v>1.27</v>
       </c>
       <c r="M132">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="N132">
         <v>1.05</v>
@@ -27632,19 +27632,19 @@
         <v>4.6</v>
       </c>
       <c r="P132">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="Q132">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="R132">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S132">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="T132">
-        <v>1.1</v>
+        <v>1.45</v>
       </c>
       <c r="U132">
         <v>980</v>
@@ -27799,22 +27799,22 @@
         <v>445</v>
       </c>
       <c r="F133">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="G133">
         <v>480</v>
       </c>
       <c r="H133">
-        <v>1.45</v>
+        <v>1.87</v>
       </c>
       <c r="I133">
-        <v>870</v>
+        <v>1000</v>
       </c>
       <c r="J133">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="K133">
-        <v>330</v>
+        <v>6.6</v>
       </c>
       <c r="L133">
         <v>1.27</v>
@@ -27829,25 +27829,25 @@
         <v>4.6</v>
       </c>
       <c r="P133">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="Q133">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="R133">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S133">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="T133">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="U133">
         <v>1000</v>
       </c>
       <c r="V133">
-        <v>1.01</v>
+        <v>2.94</v>
       </c>
       <c r="W133">
         <v>1000</v>
@@ -27871,7 +27871,7 @@
         <v>1000</v>
       </c>
       <c r="AD133">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="AE133">
         <v>1000</v>
@@ -27883,25 +27883,25 @@
         <v>1000</v>
       </c>
       <c r="AH133">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AI133">
         <v>1000</v>
       </c>
       <c r="AJ133">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="AK133">
         <v>1000</v>
       </c>
       <c r="AL133">
-        <v>1.01</v>
+        <v>2.98</v>
       </c>
       <c r="AM133">
         <v>1000</v>
       </c>
       <c r="AN133">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="AO133">
         <v>1000</v>
@@ -27931,7 +27931,7 @@
         <v>1000</v>
       </c>
       <c r="AX133">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="AY133">
         <v>1000</v>
@@ -27996,157 +27996,157 @@
         <v>446</v>
       </c>
       <c r="F134">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="G134">
+        <v>3.15</v>
+      </c>
+      <c r="H134">
+        <v>2.74</v>
+      </c>
+      <c r="I134">
+        <v>3.15</v>
+      </c>
+      <c r="J134">
+        <v>2.76</v>
+      </c>
+      <c r="K134">
+        <v>3.35</v>
+      </c>
+      <c r="L134">
+        <v>1.65</v>
+      </c>
+      <c r="M134">
+        <v>1.78</v>
+      </c>
+      <c r="N134">
+        <v>2.28</v>
+      </c>
+      <c r="O134">
+        <v>2.54</v>
+      </c>
+      <c r="P134">
+        <v>1.86</v>
+      </c>
+      <c r="Q134">
+        <v>2.76</v>
+      </c>
+      <c r="R134">
+        <v>1.86</v>
+      </c>
+      <c r="S134">
+        <v>2.16</v>
+      </c>
+      <c r="T134">
+        <v>2.68</v>
+      </c>
+      <c r="U134">
+        <v>980</v>
+      </c>
+      <c r="V134">
+        <v>2.8</v>
+      </c>
+      <c r="W134">
+        <v>980</v>
+      </c>
+      <c r="X134">
+        <v>6.6</v>
+      </c>
+      <c r="Y134">
+        <v>980</v>
+      </c>
+      <c r="Z134">
         <v>4.4</v>
       </c>
-      <c r="H134">
-        <v>2.02</v>
-      </c>
-      <c r="I134">
-        <v>2.58</v>
-      </c>
-      <c r="J134">
-        <v>3.05</v>
-      </c>
-      <c r="K134">
+      <c r="AA134">
+        <v>1000</v>
+      </c>
+      <c r="AB134">
+        <v>2.16</v>
+      </c>
+      <c r="AC134">
+        <v>980</v>
+      </c>
+      <c r="AD134">
+        <v>6</v>
+      </c>
+      <c r="AE134">
+        <v>980</v>
+      </c>
+      <c r="AF134">
+        <v>3.85</v>
+      </c>
+      <c r="AG134">
+        <v>980</v>
+      </c>
+      <c r="AH134">
+        <v>4.5</v>
+      </c>
+      <c r="AI134">
+        <v>1000</v>
+      </c>
+      <c r="AJ134">
+        <v>4</v>
+      </c>
+      <c r="AK134">
+        <v>980</v>
+      </c>
+      <c r="AL134">
+        <v>4.2</v>
+      </c>
+      <c r="AM134">
+        <v>980</v>
+      </c>
+      <c r="AN134">
+        <v>7.4</v>
+      </c>
+      <c r="AO134">
+        <v>980</v>
+      </c>
+      <c r="AP134">
+        <v>4.5</v>
+      </c>
+      <c r="AQ134">
+        <v>1000</v>
+      </c>
+      <c r="AR134">
         <v>5.1</v>
       </c>
-      <c r="L134">
-        <v>1.27</v>
-      </c>
-      <c r="M134">
-        <v>1.92</v>
-      </c>
-      <c r="N134">
-        <v>2.08</v>
-      </c>
-      <c r="O134">
-        <v>4.6</v>
-      </c>
-      <c r="P134">
-        <v>1.12</v>
-      </c>
-      <c r="Q134">
-        <v>20</v>
-      </c>
-      <c r="R134">
-        <v>1.12</v>
-      </c>
-      <c r="S134">
-        <v>20</v>
-      </c>
-      <c r="T134">
-        <v>1.01</v>
-      </c>
-      <c r="U134">
-        <v>1000</v>
-      </c>
-      <c r="V134">
-        <v>1.01</v>
-      </c>
-      <c r="W134">
-        <v>1000</v>
-      </c>
-      <c r="X134">
-        <v>10</v>
-      </c>
-      <c r="Y134">
-        <v>1000</v>
-      </c>
-      <c r="Z134">
-        <v>1.01</v>
-      </c>
-      <c r="AA134">
-        <v>1000</v>
-      </c>
-      <c r="AB134">
-        <v>1.01</v>
-      </c>
-      <c r="AC134">
-        <v>1000</v>
-      </c>
-      <c r="AD134">
-        <v>1.01</v>
-      </c>
-      <c r="AE134">
-        <v>1000</v>
-      </c>
-      <c r="AF134">
-        <v>1.01</v>
-      </c>
-      <c r="AG134">
-        <v>1000</v>
-      </c>
-      <c r="AH134">
-        <v>1.01</v>
-      </c>
-      <c r="AI134">
-        <v>1000</v>
-      </c>
-      <c r="AJ134">
-        <v>1.01</v>
-      </c>
-      <c r="AK134">
-        <v>1000</v>
-      </c>
-      <c r="AL134">
-        <v>1.01</v>
-      </c>
-      <c r="AM134">
-        <v>1000</v>
-      </c>
-      <c r="AN134">
-        <v>1.01</v>
-      </c>
-      <c r="AO134">
-        <v>1000</v>
-      </c>
-      <c r="AP134">
-        <v>1.01</v>
-      </c>
-      <c r="AQ134">
-        <v>1000</v>
-      </c>
-      <c r="AR134">
-        <v>1.01</v>
-      </c>
       <c r="AS134">
         <v>1000</v>
       </c>
       <c r="AT134">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="AU134">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV134">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AW134">
         <v>1000</v>
       </c>
       <c r="AX134">
-        <v>1.01</v>
+        <v>22</v>
       </c>
       <c r="AY134">
         <v>1000</v>
       </c>
       <c r="AZ134">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="BA134">
         <v>1000</v>
       </c>
       <c r="BB134">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="BC134">
         <v>1000</v>
       </c>
       <c r="BD134">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="BE134">
         <v>1000</v>
@@ -28193,157 +28193,157 @@
         <v>447</v>
       </c>
       <c r="F135">
+        <v>1.81</v>
+      </c>
+      <c r="G135">
+        <v>1.84</v>
+      </c>
+      <c r="H135">
+        <v>4.9</v>
+      </c>
+      <c r="I135">
+        <v>5.4</v>
+      </c>
+      <c r="J135">
+        <v>3.7</v>
+      </c>
+      <c r="K135">
+        <v>3.95</v>
+      </c>
+      <c r="L135">
+        <v>1.8</v>
+      </c>
+      <c r="M135">
         <v>1.87</v>
       </c>
-      <c r="G135">
-        <v>2.02</v>
-      </c>
-      <c r="H135">
-        <v>4.3</v>
-      </c>
-      <c r="I135">
-        <v>5.5</v>
-      </c>
-      <c r="J135">
-        <v>3.4</v>
-      </c>
-      <c r="K135">
-        <v>4.3</v>
-      </c>
-      <c r="L135">
-        <v>1.63</v>
-      </c>
-      <c r="M135">
-        <v>2.68</v>
-      </c>
       <c r="N135">
-        <v>1.6</v>
+        <v>2.16</v>
       </c>
       <c r="O135">
-        <v>2.58</v>
+        <v>2.26</v>
       </c>
       <c r="P135">
-        <v>1.12</v>
+        <v>1.95</v>
       </c>
       <c r="Q135">
-        <v>20</v>
+        <v>2.22</v>
       </c>
       <c r="R135">
-        <v>1.12</v>
+        <v>1.82</v>
       </c>
       <c r="S135">
-        <v>20</v>
+        <v>2.06</v>
       </c>
       <c r="T135">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="U135">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="V135">
-        <v>1.01</v>
+        <v>14.5</v>
       </c>
       <c r="W135">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="X135">
-        <v>1.01</v>
+        <v>32</v>
       </c>
       <c r="Y135">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z135">
-        <v>1.01</v>
+        <v>13</v>
       </c>
       <c r="AA135">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB135">
         <v>7</v>
       </c>
       <c r="AC135">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD135">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AE135">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AF135">
-        <v>1.01</v>
+        <v>18.5</v>
       </c>
       <c r="AG135">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH135">
-        <v>1.01</v>
+        <v>38</v>
       </c>
       <c r="AI135">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ135">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK135">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL135">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM135">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AN135">
-        <v>1.01</v>
+        <v>19.5</v>
       </c>
       <c r="AO135">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AP135">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="AQ135">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AR135">
-        <v>1.01</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AS135">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AT135">
-        <v>1.01</v>
+        <v>18.5</v>
       </c>
       <c r="AU135">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AV135">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="AW135">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AX135">
-        <v>1.01</v>
+        <v>5.9</v>
       </c>
       <c r="AY135">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AZ135">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="BA135">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="BB135">
-        <v>1.01</v>
+        <v>5.8</v>
       </c>
       <c r="BC135">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="BD135">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="BE135">
         <v>1000</v>
@@ -28393,7 +28393,7 @@
         <v>1.61</v>
       </c>
       <c r="G136">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="H136">
         <v>1.61</v>
@@ -28411,10 +28411,10 @@
         <v>1.27</v>
       </c>
       <c r="M136">
-        <v>960</v>
+        <v>7.8</v>
       </c>
       <c r="N136">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="O136">
         <v>4.6</v>
@@ -28432,7 +28432,7 @@
         <v>10.5</v>
       </c>
       <c r="T136">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="U136">
         <v>1000</v>
@@ -28587,157 +28587,157 @@
         <v>449</v>
       </c>
       <c r="F137">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137">
+        <v>4.9</v>
+      </c>
+      <c r="I137">
+        <v>5</v>
+      </c>
+      <c r="J137">
+        <v>3.3</v>
+      </c>
+      <c r="K137">
+        <v>3.55</v>
+      </c>
+      <c r="L137">
+        <v>1.75</v>
+      </c>
+      <c r="M137">
+        <v>1.81</v>
+      </c>
+      <c r="N137">
+        <v>2.24</v>
+      </c>
+      <c r="O137">
+        <v>2.34</v>
+      </c>
+      <c r="P137">
+        <v>1.99</v>
+      </c>
+      <c r="Q137">
+        <v>2.16</v>
+      </c>
+      <c r="R137">
+        <v>1.87</v>
+      </c>
+      <c r="S137">
         <v>2.02</v>
       </c>
-      <c r="H137">
-        <v>4</v>
-      </c>
-      <c r="I137">
-        <v>870</v>
-      </c>
-      <c r="J137">
-        <v>3.2</v>
-      </c>
-      <c r="K137">
-        <v>330</v>
-      </c>
-      <c r="L137">
-        <v>1.27</v>
-      </c>
-      <c r="M137">
-        <v>18</v>
-      </c>
-      <c r="N137">
-        <v>1.07</v>
-      </c>
-      <c r="O137">
-        <v>4.6</v>
-      </c>
-      <c r="P137">
-        <v>1.12</v>
-      </c>
-      <c r="Q137">
-        <v>110</v>
-      </c>
-      <c r="R137">
-        <v>1.12</v>
-      </c>
-      <c r="S137">
-        <v>110</v>
-      </c>
       <c r="T137">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="U137">
         <v>13</v>
       </c>
       <c r="V137">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="W137">
         <v>17</v>
       </c>
       <c r="X137">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y137">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="Z137">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="AA137">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB137">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AC137">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AD137">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AE137">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AF137">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG137">
         <v>23</v>
       </c>
       <c r="AH137">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="AI137">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ137">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK137">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL137">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AM137">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AN137">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AO137">
         <v>27</v>
       </c>
       <c r="AP137">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="AQ137">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR137">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AS137">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AT137">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AU137">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AV137">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="AW137">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX137">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="AY137">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ137">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="BA137">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB137">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="BC137">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD137">
-        <v>1.01</v>
+        <v>5.9</v>
       </c>
       <c r="BE137">
         <v>1000</v>
@@ -28784,157 +28784,157 @@
         <v>450</v>
       </c>
       <c r="F138">
-        <v>2.02</v>
+        <v>3.35</v>
       </c>
       <c r="G138">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="H138">
-        <v>1.53</v>
+        <v>2.22</v>
       </c>
       <c r="I138">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="J138">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="K138">
-        <v>330</v>
+        <v>3.85</v>
       </c>
       <c r="L138">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="M138">
-        <v>2.64</v>
+        <v>2.04</v>
       </c>
       <c r="N138">
-        <v>1.61</v>
+        <v>1.98</v>
       </c>
       <c r="O138">
-        <v>2.7</v>
+        <v>2.06</v>
       </c>
       <c r="P138">
-        <v>1.12</v>
+        <v>1.77</v>
       </c>
       <c r="Q138">
-        <v>20</v>
+        <v>1.89</v>
       </c>
       <c r="R138">
-        <v>1.12</v>
+        <v>2.12</v>
       </c>
       <c r="S138">
-        <v>20</v>
+        <v>2.3</v>
       </c>
       <c r="T138">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="U138">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="V138">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="W138">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="X138">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="Y138">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z138">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AA138">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB138">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="AC138">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AD138">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="AE138">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AF138">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="AG138">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH138">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="AI138">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ138">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="AK138">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL138">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="AM138">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AN138">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="AO138">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AP138">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="AQ138">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR138">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AS138">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT138">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AU138">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV138">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="AW138">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX138">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="AY138">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ138">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BA138">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB138">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="BC138">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="BD138">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="BE138">
         <v>1000</v>
@@ -28981,82 +28981,82 @@
         <v>451</v>
       </c>
       <c r="F139">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="G139">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H139">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="I139">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J139">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K139">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="L139">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="M139">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="N139">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="O139">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="P139">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q139">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R139">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S139">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="T139">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="U139">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="V139">
         <v>8.800000000000001</v>
       </c>
       <c r="W139">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="X139">
         <v>16.5</v>
       </c>
       <c r="Y139">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Z139">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="AA139">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AB139">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC139">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD139">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AE139">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AF139">
         <v>11.5</v>
@@ -29065,73 +29065,73 @@
         <v>15.5</v>
       </c>
       <c r="AH139">
-        <v>1.1</v>
+        <v>7</v>
       </c>
       <c r="AI139">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ139">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK139">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL139">
         <v>10</v>
       </c>
       <c r="AM139">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AN139">
         <v>16.5</v>
       </c>
       <c r="AO139">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AP139">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="AQ139">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AR139">
-        <v>1.1</v>
+        <v>6.8</v>
       </c>
       <c r="AS139">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AT139">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="AU139">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AV139">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="AW139">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AX139">
-        <v>1.1</v>
+        <v>7.8</v>
       </c>
       <c r="AY139">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AZ139">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="BA139">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="BB139">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="BC139">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="BD139">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE139">
         <v>1000</v>
@@ -29178,157 +29178,157 @@
         <v>452</v>
       </c>
       <c r="F140">
-        <v>1.06</v>
+        <v>2.6</v>
       </c>
       <c r="G140">
-        <v>2.96</v>
+        <v>2.72</v>
       </c>
       <c r="H140">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="J140">
-        <v>1.21</v>
+        <v>3.35</v>
       </c>
       <c r="K140">
-        <v>330</v>
+        <v>3.55</v>
       </c>
       <c r="L140">
-        <v>1.27</v>
+        <v>1.83</v>
       </c>
       <c r="M140">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="N140">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="O140">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="P140">
-        <v>1.12</v>
+        <v>1.76</v>
       </c>
       <c r="Q140">
-        <v>110</v>
+        <v>1.98</v>
       </c>
       <c r="R140">
-        <v>1.12</v>
+        <v>2.02</v>
       </c>
       <c r="S140">
-        <v>110</v>
+        <v>2.3</v>
       </c>
       <c r="T140">
-        <v>1.1</v>
+        <v>10</v>
       </c>
       <c r="U140">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="V140">
-        <v>1.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W140">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="X140">
-        <v>1.1</v>
+        <v>15.5</v>
       </c>
       <c r="Y140">
+        <v>980</v>
+      </c>
+      <c r="Z140">
+        <v>6.2</v>
+      </c>
+      <c r="AA140">
+        <v>980</v>
+      </c>
+      <c r="AB140">
+        <v>8.6</v>
+      </c>
+      <c r="AC140">
+        <v>12</v>
+      </c>
+      <c r="AD140">
+        <v>6.4</v>
+      </c>
+      <c r="AE140">
+        <v>8.6</v>
+      </c>
+      <c r="AF140">
+        <v>11.5</v>
+      </c>
+      <c r="AG140">
+        <v>14.5</v>
+      </c>
+      <c r="AH140">
+        <v>28</v>
+      </c>
+      <c r="AI140">
+        <v>980</v>
+      </c>
+      <c r="AJ140">
+        <v>13</v>
+      </c>
+      <c r="AK140">
+        <v>17</v>
+      </c>
+      <c r="AL140">
+        <v>10</v>
+      </c>
+      <c r="AM140">
+        <v>13.5</v>
+      </c>
+      <c r="AN140">
+        <v>15</v>
+      </c>
+      <c r="AO140">
+        <v>21</v>
+      </c>
+      <c r="AP140">
+        <v>36</v>
+      </c>
+      <c r="AQ140">
+        <v>980</v>
+      </c>
+      <c r="AR140">
+        <v>27</v>
+      </c>
+      <c r="AS140">
+        <v>980</v>
+      </c>
+      <c r="AT140">
         <v>22</v>
       </c>
-      <c r="Z140">
-        <v>1.1</v>
-      </c>
-      <c r="AA140">
-        <v>1000</v>
-      </c>
-      <c r="AB140">
-        <v>1.1</v>
-      </c>
-      <c r="AC140">
-        <v>980</v>
-      </c>
-      <c r="AD140">
-        <v>1.1</v>
-      </c>
-      <c r="AE140">
-        <v>980</v>
-      </c>
-      <c r="AF140">
-        <v>1.1</v>
-      </c>
-      <c r="AG140">
-        <v>980</v>
-      </c>
-      <c r="AH140">
-        <v>1.1</v>
-      </c>
-      <c r="AI140">
-        <v>1000</v>
-      </c>
-      <c r="AJ140">
-        <v>1.1</v>
-      </c>
-      <c r="AK140">
-        <v>17.5</v>
-      </c>
-      <c r="AL140">
-        <v>1.1</v>
-      </c>
-      <c r="AM140">
-        <v>980</v>
-      </c>
-      <c r="AN140">
-        <v>1.1</v>
-      </c>
-      <c r="AO140">
-        <v>980</v>
-      </c>
-      <c r="AP140">
-        <v>1.1</v>
-      </c>
-      <c r="AQ140">
-        <v>1000</v>
-      </c>
-      <c r="AR140">
-        <v>1.1</v>
-      </c>
-      <c r="AS140">
-        <v>1000</v>
-      </c>
-      <c r="AT140">
-        <v>1.1</v>
-      </c>
       <c r="AU140">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV140">
-        <v>1.1</v>
+        <v>34</v>
       </c>
       <c r="AW140">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX140">
-        <v>1.1</v>
+        <v>6.8</v>
       </c>
       <c r="AY140">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ140">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="BA140">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB140">
-        <v>1.1</v>
+        <v>5.9</v>
       </c>
       <c r="BC140">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="BD140">
-        <v>1.1</v>
+        <v>7</v>
       </c>
       <c r="BE140">
         <v>1000</v>
@@ -29375,157 +29375,157 @@
         <v>453</v>
       </c>
       <c r="F141">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="G141">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="H141">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="I141">
+        <v>6</v>
+      </c>
+      <c r="J141">
+        <v>3.45</v>
+      </c>
+      <c r="K141">
+        <v>3.5</v>
+      </c>
+      <c r="L141">
+        <v>1.6</v>
+      </c>
+      <c r="M141">
+        <v>1.63</v>
+      </c>
+      <c r="N141">
+        <v>2.58</v>
+      </c>
+      <c r="O141">
+        <v>2.68</v>
+      </c>
+      <c r="P141">
+        <v>2.16</v>
+      </c>
+      <c r="Q141">
+        <v>2.52</v>
+      </c>
+      <c r="R141">
+        <v>1.65</v>
+      </c>
+      <c r="S141">
+        <v>1.87</v>
+      </c>
+      <c r="T141">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="U141">
+        <v>9</v>
+      </c>
+      <c r="V141">
+        <v>13</v>
+      </c>
+      <c r="W141">
+        <v>15.5</v>
+      </c>
+      <c r="X141">
+        <v>36</v>
+      </c>
+      <c r="Y141">
+        <v>42</v>
+      </c>
+      <c r="Z141">
+        <v>16.5</v>
+      </c>
+      <c r="AA141">
+        <v>980</v>
+      </c>
+      <c r="AB141">
         <v>5.8</v>
       </c>
-      <c r="J141">
-        <v>3.25</v>
-      </c>
-      <c r="K141">
-        <v>1000</v>
-      </c>
-      <c r="L141">
-        <v>1.44</v>
-      </c>
-      <c r="M141">
-        <v>1.97</v>
-      </c>
-      <c r="N141">
-        <v>2.04</v>
-      </c>
-      <c r="O141">
-        <v>3.25</v>
-      </c>
-      <c r="P141">
-        <v>2</v>
-      </c>
-      <c r="Q141">
-        <v>2.68</v>
-      </c>
-      <c r="R141">
-        <v>1.6</v>
-      </c>
-      <c r="S141">
-        <v>2</v>
-      </c>
-      <c r="T141">
-        <v>1.1</v>
-      </c>
-      <c r="U141">
-        <v>980</v>
-      </c>
-      <c r="V141">
-        <v>1.1</v>
-      </c>
-      <c r="W141">
-        <v>980</v>
-      </c>
-      <c r="X141">
-        <v>1.1</v>
-      </c>
-      <c r="Y141">
-        <v>1000</v>
-      </c>
-      <c r="Z141">
-        <v>1.1</v>
-      </c>
-      <c r="AA141">
-        <v>1000</v>
-      </c>
-      <c r="AB141">
-        <v>1.1</v>
-      </c>
       <c r="AC141">
-        <v>980</v>
+        <v>6.6</v>
       </c>
       <c r="AD141">
-        <v>1.1</v>
+        <v>7.6</v>
       </c>
       <c r="AE141">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="AF141">
-        <v>1.1</v>
+        <v>22</v>
       </c>
       <c r="AG141">
         <v>980</v>
       </c>
       <c r="AH141">
-        <v>1.1</v>
+        <v>15.5</v>
       </c>
       <c r="AI141">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ141">
-        <v>1.1</v>
+        <v>8.6</v>
       </c>
       <c r="AK141">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AL141">
+        <v>10</v>
+      </c>
+      <c r="AM141">
         <v>11</v>
       </c>
-      <c r="AL141">
-        <v>1.1</v>
-      </c>
-      <c r="AM141">
-        <v>980</v>
-      </c>
       <c r="AN141">
-        <v>1.1</v>
+        <v>25</v>
       </c>
       <c r="AO141">
         <v>980</v>
       </c>
       <c r="AP141">
-        <v>1.1</v>
+        <v>16</v>
       </c>
       <c r="AQ141">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AR141">
-        <v>1.1</v>
+        <v>16.5</v>
       </c>
       <c r="AS141">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AT141">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="AU141">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AV141">
-        <v>1.1</v>
+        <v>40</v>
       </c>
       <c r="AW141">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AX141">
-        <v>1.1</v>
+        <v>15</v>
       </c>
       <c r="AY141">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ141">
-        <v>1.1</v>
+        <v>15.5</v>
       </c>
       <c r="BA141">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="BB141">
-        <v>1.1</v>
+        <v>15</v>
       </c>
       <c r="BC141">
         <v>1000</v>
       </c>
       <c r="BD141">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="BE141">
         <v>1000</v>
@@ -29572,154 +29572,154 @@
         <v>454</v>
       </c>
       <c r="F142">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="G142">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="H142">
+        <v>5.6</v>
+      </c>
+      <c r="I142">
         <v>6</v>
       </c>
-      <c r="I142">
-        <v>7.8</v>
-      </c>
       <c r="J142">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K142">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L142">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="M142">
-        <v>960</v>
+        <v>1.57</v>
       </c>
       <c r="N142">
-        <v>1.1</v>
+        <v>2.76</v>
       </c>
       <c r="O142">
-        <v>4.6</v>
+        <v>2.82</v>
       </c>
       <c r="P142">
-        <v>1.11</v>
+        <v>2.02</v>
       </c>
       <c r="Q142">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="R142">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="S142">
-        <v>11</v>
+        <v>1.99</v>
       </c>
       <c r="T142">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="U142">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="V142">
-        <v>5.1</v>
+        <v>12.5</v>
       </c>
       <c r="W142">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="X142">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="Y142">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="Z142">
         <v>4.3</v>
       </c>
       <c r="AA142">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c r="AB142">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="AC142">
-        <v>7</v>
+        <v>980</v>
       </c>
       <c r="AD142">
-        <v>2.9</v>
+        <v>7.2</v>
       </c>
       <c r="AE142">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF142">
-        <v>3.85</v>
+        <v>22</v>
       </c>
       <c r="AG142">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AH142">
+        <v>4.2</v>
+      </c>
+      <c r="AI142">
+        <v>120</v>
+      </c>
+      <c r="AJ142">
+        <v>8.4</v>
+      </c>
+      <c r="AK142">
+        <v>11.5</v>
+      </c>
+      <c r="AL142">
+        <v>10.5</v>
+      </c>
+      <c r="AM142">
+        <v>980</v>
+      </c>
+      <c r="AN142">
+        <v>11</v>
+      </c>
+      <c r="AO142">
+        <v>980</v>
+      </c>
+      <c r="AP142">
         <v>4.3</v>
       </c>
-      <c r="AI142">
-        <v>980</v>
-      </c>
-      <c r="AJ142">
-        <v>7.8</v>
-      </c>
-      <c r="AK142">
-        <v>980</v>
-      </c>
-      <c r="AL142">
-        <v>4.4</v>
-      </c>
-      <c r="AM142">
-        <v>980</v>
-      </c>
-      <c r="AN142">
-        <v>4</v>
-      </c>
-      <c r="AO142">
-        <v>980</v>
-      </c>
-      <c r="AP142">
-        <v>4.4</v>
-      </c>
       <c r="AQ142">
         <v>980</v>
       </c>
       <c r="AR142">
-        <v>14.5</v>
+        <v>3.7</v>
       </c>
       <c r="AS142">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AT142">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AU142">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AV142">
         <v>4.2</v>
       </c>
       <c r="AW142">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AX142">
-        <v>4.4</v>
+        <v>22</v>
       </c>
       <c r="AY142">
-        <v>980</v>
+        <v>290</v>
       </c>
       <c r="AZ142">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="BA142">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="BB142">
         <v>4.4</v>
       </c>
       <c r="BC142">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="BD142">
         <v>4.4</v>
@@ -29769,157 +29769,157 @@
         <v>455</v>
       </c>
       <c r="F143">
+        <v>1.22</v>
+      </c>
+      <c r="G143">
         <v>1.25</v>
       </c>
-      <c r="G143">
-        <v>1.27</v>
-      </c>
       <c r="H143">
-        <v>4.7</v>
+        <v>14</v>
       </c>
       <c r="I143">
-        <v>870</v>
+        <v>20</v>
       </c>
       <c r="J143">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="K143">
-        <v>330</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L143">
-        <v>1.27</v>
+        <v>2.66</v>
       </c>
       <c r="M143">
-        <v>110</v>
+        <v>2.94</v>
       </c>
       <c r="N143">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="O143">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="P143">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="Q143">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="R143">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="S143">
-        <v>1000</v>
+        <v>1.9</v>
       </c>
       <c r="T143">
-        <v>1.01</v>
+        <v>22</v>
       </c>
       <c r="U143">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="V143">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="W143">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="X143">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="Y143">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z143">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="AA143">
         <v>1000</v>
       </c>
       <c r="AB143">
-        <v>1.01</v>
+        <v>8.6</v>
       </c>
       <c r="AC143">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD143">
-        <v>1.01</v>
+        <v>14.5</v>
       </c>
       <c r="AE143">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AF143">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AG143">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AH143">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AI143">
         <v>1000</v>
       </c>
       <c r="AJ143">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AK143">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AL143">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="AM143">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AN143">
-        <v>1.01</v>
+        <v>32</v>
       </c>
       <c r="AO143">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AP143">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="AQ143">
         <v>1000</v>
       </c>
       <c r="AR143">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="AS143">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AT143">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="AU143">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AV143">
-        <v>1.01</v>
+        <v>32</v>
       </c>
       <c r="AW143">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AX143">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="AY143">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ143">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="BA143">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="BB143">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="BC143">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="BD143">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="BE143">
         <v>1000</v>
@@ -29966,157 +29966,157 @@
         <v>456</v>
       </c>
       <c r="F144">
-        <v>1.76</v>
+        <v>1.93</v>
       </c>
       <c r="G144">
-        <v>2.7</v>
+        <v>2.04</v>
       </c>
       <c r="H144">
+        <v>4.7</v>
+      </c>
+      <c r="I144">
+        <v>5.8</v>
+      </c>
+      <c r="J144">
         <v>3.15</v>
       </c>
-      <c r="I144">
-        <v>14.5</v>
-      </c>
-      <c r="J144">
-        <v>2.74</v>
-      </c>
       <c r="K144">
-        <v>9.6</v>
+        <v>3.45</v>
       </c>
       <c r="L144">
-        <v>1.31</v>
+        <v>1.72</v>
       </c>
       <c r="M144">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="N144">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="O144">
-        <v>4.2</v>
+        <v>2.38</v>
       </c>
       <c r="P144">
-        <v>1.12</v>
+        <v>2.02</v>
       </c>
       <c r="Q144">
-        <v>20</v>
+        <v>2.28</v>
       </c>
       <c r="R144">
-        <v>1.12</v>
+        <v>1.78</v>
       </c>
       <c r="S144">
-        <v>20</v>
+        <v>1.98</v>
       </c>
       <c r="T144">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="U144">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="V144">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="W144">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="X144">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="Y144">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z144">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="AA144">
         <v>1000</v>
       </c>
       <c r="AB144">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AC144">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD144">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AE144">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF144">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="AG144">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH144">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="AI144">
         <v>1000</v>
       </c>
       <c r="AJ144">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="AK144">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL144">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="AM144">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN144">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="AO144">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP144">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="AQ144">
         <v>1000</v>
       </c>
       <c r="AR144">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="AS144">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT144">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="AU144">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV144">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AW144">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX144">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="AY144">
         <v>1000</v>
       </c>
       <c r="AZ144">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="BA144">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB144">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="BC144">
         <v>1000</v>
       </c>
       <c r="BD144">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="BE144">
         <v>1000</v>
@@ -30163,85 +30163,85 @@
         <v>457</v>
       </c>
       <c r="F145">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="G145">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="H145">
-        <v>2.8</v>
+        <v>2.98</v>
       </c>
       <c r="I145">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="J145">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="K145">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="L145">
-        <v>1.59</v>
+        <v>1.88</v>
       </c>
       <c r="M145">
-        <v>6.6</v>
+        <v>1.94</v>
       </c>
       <c r="N145">
-        <v>1.25</v>
+        <v>2.06</v>
       </c>
       <c r="O145">
-        <v>2.7</v>
+        <v>2.14</v>
       </c>
       <c r="P145">
-        <v>1.12</v>
+        <v>1.75</v>
       </c>
       <c r="Q145">
-        <v>20</v>
+        <v>1.88</v>
       </c>
       <c r="R145">
-        <v>1.12</v>
+        <v>2.14</v>
       </c>
       <c r="S145">
-        <v>20</v>
+        <v>2.32</v>
       </c>
       <c r="T145">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="U145">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V145">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="W145">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X145">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y145">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z145">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="AA145">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB145">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC145">
         <v>13.5</v>
       </c>
       <c r="AD145">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AE145">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF145">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG145">
         <v>16</v>
@@ -30250,70 +30250,70 @@
         <v>24</v>
       </c>
       <c r="AI145">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ145">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AK145">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL145">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AM145">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AN145">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO145">
         <v>21</v>
       </c>
       <c r="AP145">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="AQ145">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR145">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS145">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AT145">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU145">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AV145">
-        <v>28</v>
+        <v>4.9</v>
       </c>
       <c r="AW145">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX145">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="AY145">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ145">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BA145">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BB145">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BC145">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BD145">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="BE145">
         <v>1000</v>
@@ -30360,157 +30360,157 @@
         <v>458</v>
       </c>
       <c r="F146">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="G146">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="H146">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="I146">
-        <v>3.15</v>
+        <v>2.76</v>
       </c>
       <c r="J146">
         <v>3.1</v>
       </c>
       <c r="K146">
-        <v>3.95</v>
+        <v>3.35</v>
       </c>
       <c r="L146">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="M146">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="N146">
-        <v>2.06</v>
+        <v>2.36</v>
       </c>
       <c r="O146">
         <v>2.5</v>
       </c>
       <c r="P146">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="Q146">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="R146">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="S146">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="T146">
-        <v>7.8</v>
+        <v>4.2</v>
       </c>
       <c r="U146">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="V146">
-        <v>7.2</v>
+        <v>4</v>
       </c>
       <c r="W146">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="X146">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="Y146">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z146">
-        <v>30</v>
+        <v>3.7</v>
       </c>
       <c r="AA146">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AB146">
-        <v>7.8</v>
+        <v>4.2</v>
       </c>
       <c r="AC146">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD146">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE146">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AF146">
-        <v>9.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="AG146">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH146">
-        <v>26</v>
+        <v>3.65</v>
       </c>
       <c r="AI146">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ146">
-        <v>14</v>
+        <v>5.2</v>
       </c>
       <c r="AK146">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL146">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AM146">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AN146">
-        <v>15.5</v>
+        <v>5.5</v>
       </c>
       <c r="AO146">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AP146">
-        <v>40</v>
+        <v>6.2</v>
       </c>
       <c r="AQ146">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AR146">
-        <v>36</v>
+        <v>3.75</v>
       </c>
       <c r="AS146">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AT146">
-        <v>28</v>
+        <v>3.7</v>
       </c>
       <c r="AU146">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AV146">
-        <v>42</v>
+        <v>3.8</v>
       </c>
       <c r="AW146">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AX146">
-        <v>95</v>
+        <v>6.4</v>
       </c>
       <c r="AY146">
         <v>1000</v>
       </c>
       <c r="AZ146">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="BA146">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="BB146">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="BC146">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="BD146">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BE146">
         <v>1000</v>
@@ -30557,157 +30557,157 @@
         <v>459</v>
       </c>
       <c r="F147">
-        <v>1.76</v>
+        <v>2.08</v>
       </c>
       <c r="G147">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="H147">
+        <v>4.1</v>
+      </c>
+      <c r="I147">
         <v>4.3</v>
       </c>
-      <c r="I147">
-        <v>5.6</v>
-      </c>
       <c r="J147">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K147">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="L147">
         <v>1.77</v>
       </c>
       <c r="M147">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="N147">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="O147">
         <v>2.3</v>
       </c>
       <c r="P147">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q147">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="R147">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="S147">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="T147">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="U147">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="V147">
-        <v>1.1</v>
+        <v>11.5</v>
       </c>
       <c r="W147">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="X147">
-        <v>1.1</v>
+        <v>22</v>
       </c>
       <c r="Y147">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Z147">
-        <v>1.1</v>
+        <v>8.6</v>
       </c>
       <c r="AA147">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB147">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="AC147">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="AD147">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="AE147">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="AF147">
-        <v>1.1</v>
+        <v>15</v>
       </c>
       <c r="AG147">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AH147">
-        <v>1.1</v>
+        <v>8.4</v>
       </c>
       <c r="AI147">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AJ147">
-        <v>1.1</v>
+        <v>10.5</v>
       </c>
       <c r="AK147">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL147">
-        <v>1.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM147">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AN147">
-        <v>1.1</v>
+        <v>18.5</v>
       </c>
       <c r="AO147">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AP147">
-        <v>1.1</v>
+        <v>8.6</v>
       </c>
       <c r="AQ147">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR147">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="AS147">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AT147">
-        <v>1.1</v>
+        <v>19</v>
       </c>
       <c r="AU147">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AV147">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AW147">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AX147">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="AY147">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ147">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="BA147">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="BB147">
-        <v>1.1</v>
+        <v>8.4</v>
       </c>
       <c r="BC147">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD147">
-        <v>1.1</v>
+        <v>9.4</v>
       </c>
       <c r="BE147">
         <v>1000</v>
@@ -30754,157 +30754,157 @@
         <v>460</v>
       </c>
       <c r="F148">
-        <v>1.43</v>
+        <v>2.64</v>
       </c>
       <c r="G148">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="H148">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I148">
-        <v>870</v>
+        <v>3.4</v>
       </c>
       <c r="J148">
-        <v>1.62</v>
+        <v>3.05</v>
       </c>
       <c r="K148">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L148">
-        <v>1.27</v>
+        <v>1.69</v>
       </c>
       <c r="M148">
-        <v>1000</v>
+        <v>1.75</v>
       </c>
       <c r="N148">
-        <v>1.05</v>
+        <v>2.32</v>
       </c>
       <c r="O148">
-        <v>4.6</v>
+        <v>2.46</v>
       </c>
       <c r="P148">
-        <v>1.12</v>
+        <v>1.84</v>
       </c>
       <c r="Q148">
-        <v>20</v>
+        <v>2.14</v>
       </c>
       <c r="R148">
-        <v>1.12</v>
+        <v>1.89</v>
       </c>
       <c r="S148">
-        <v>20</v>
+        <v>2.18</v>
       </c>
       <c r="T148">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="U148">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="V148">
-        <v>1.1</v>
+        <v>9.6</v>
       </c>
       <c r="W148">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="X148">
-        <v>1.1</v>
+        <v>18</v>
       </c>
       <c r="Y148">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z148">
-        <v>1.1</v>
+        <v>12</v>
       </c>
       <c r="AA148">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB148">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC148">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AD148">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="AE148">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="AF148">
-        <v>1.1</v>
+        <v>12.5</v>
       </c>
       <c r="AG148">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AH148">
-        <v>1.1</v>
+        <v>28</v>
       </c>
       <c r="AI148">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ148">
-        <v>1.1</v>
+        <v>13.5</v>
       </c>
       <c r="AK148">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL148">
-        <v>1.1</v>
+        <v>10</v>
       </c>
       <c r="AM148">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AN148">
-        <v>1.1</v>
+        <v>17</v>
       </c>
       <c r="AO148">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AP148">
-        <v>1.1</v>
+        <v>40</v>
       </c>
       <c r="AQ148">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR148">
-        <v>1.1</v>
+        <v>30</v>
       </c>
       <c r="AS148">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AT148">
-        <v>1.1</v>
+        <v>26</v>
       </c>
       <c r="AU148">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV148">
-        <v>1.1</v>
+        <v>40</v>
       </c>
       <c r="AW148">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AX148">
-        <v>1.1</v>
+        <v>13.5</v>
       </c>
       <c r="AY148">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AZ148">
-        <v>1.1</v>
+        <v>23</v>
       </c>
       <c r="BA148">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB148">
-        <v>1.1</v>
+        <v>11.5</v>
       </c>
       <c r="BC148">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="BD148">
-        <v>1.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BE148">
         <v>1000</v>
@@ -30951,157 +30951,157 @@
         <v>461</v>
       </c>
       <c r="F149">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="G149">
-        <v>2.8</v>
+        <v>2.36</v>
       </c>
       <c r="H149">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I149">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="J149">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K149">
-        <v>4.6</v>
+        <v>3.45</v>
       </c>
       <c r="L149">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="M149">
-        <v>980</v>
+        <v>1.81</v>
       </c>
       <c r="N149">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="O149">
-        <v>3.35</v>
+        <v>2.32</v>
       </c>
       <c r="P149">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="Q149">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R149">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="S149">
-        <v>1000</v>
+        <v>2.08</v>
       </c>
       <c r="T149">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U149">
         <v>12</v>
       </c>
       <c r="V149">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="W149">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="X149">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y149">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z149">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="AA149">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB149">
+        <v>7.2</v>
+      </c>
+      <c r="AC149">
+        <v>9.6</v>
+      </c>
+      <c r="AD149">
+        <v>6.4</v>
+      </c>
+      <c r="AE149">
+        <v>8.4</v>
+      </c>
+      <c r="AF149">
+        <v>14</v>
+      </c>
+      <c r="AG149">
+        <v>980</v>
+      </c>
+      <c r="AH149">
+        <v>7</v>
+      </c>
+      <c r="AI149">
+        <v>980</v>
+      </c>
+      <c r="AJ149">
+        <v>11.5</v>
+      </c>
+      <c r="AK149">
+        <v>980</v>
+      </c>
+      <c r="AL149">
+        <v>9.4</v>
+      </c>
+      <c r="AM149">
+        <v>980</v>
+      </c>
+      <c r="AN149">
+        <v>18</v>
+      </c>
+      <c r="AO149">
+        <v>980</v>
+      </c>
+      <c r="AP149">
+        <v>7.4</v>
+      </c>
+      <c r="AQ149">
+        <v>1000</v>
+      </c>
+      <c r="AR149">
+        <v>24</v>
+      </c>
+      <c r="AS149">
+        <v>980</v>
+      </c>
+      <c r="AT149">
+        <v>21</v>
+      </c>
+      <c r="AU149">
+        <v>980</v>
+      </c>
+      <c r="AV149">
+        <v>7.2</v>
+      </c>
+      <c r="AW149">
+        <v>50</v>
+      </c>
+      <c r="AX149">
         <v>7.8</v>
       </c>
-      <c r="AC149">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD149">
-        <v>6.6</v>
-      </c>
-      <c r="AE149">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AF149">
-        <v>12.5</v>
-      </c>
-      <c r="AG149">
-        <v>16.5</v>
-      </c>
-      <c r="AH149">
-        <v>1.01</v>
-      </c>
-      <c r="AI149">
-        <v>1000</v>
-      </c>
-      <c r="AJ149">
-        <v>12</v>
-      </c>
-      <c r="AK149">
-        <v>15.5</v>
-      </c>
-      <c r="AL149">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AM149">
-        <v>12.5</v>
-      </c>
-      <c r="AN149">
-        <v>16.5</v>
-      </c>
-      <c r="AO149">
-        <v>1000</v>
-      </c>
-      <c r="AP149">
-        <v>1.01</v>
-      </c>
-      <c r="AQ149">
-        <v>1000</v>
-      </c>
-      <c r="AR149">
-        <v>1.01</v>
-      </c>
-      <c r="AS149">
-        <v>1000</v>
-      </c>
-      <c r="AT149">
-        <v>22</v>
-      </c>
-      <c r="AU149">
-        <v>1000</v>
-      </c>
-      <c r="AV149">
-        <v>1.01</v>
-      </c>
-      <c r="AW149">
-        <v>1000</v>
-      </c>
-      <c r="AX149">
-        <v>1.01</v>
-      </c>
       <c r="AY149">
         <v>1000</v>
       </c>
       <c r="AZ149">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="BA149">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="BB149">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="BC149">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="BD149">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="BE149">
         <v>1000</v>
@@ -31148,157 +31148,157 @@
         <v>462</v>
       </c>
       <c r="F150">
-        <v>1.1</v>
+        <v>1.52</v>
       </c>
       <c r="G150">
-        <v>990</v>
+        <v>1.57</v>
       </c>
       <c r="H150">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="I150">
-        <v>870</v>
+        <v>8</v>
       </c>
       <c r="J150">
-        <v>1.21</v>
+        <v>4.4</v>
       </c>
       <c r="K150">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="L150">
-        <v>1.27</v>
+        <v>2.12</v>
       </c>
       <c r="M150">
-        <v>1000</v>
+        <v>2.26</v>
       </c>
       <c r="N150">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="O150">
+        <v>1.89</v>
+      </c>
+      <c r="P150">
+        <v>1.89</v>
+      </c>
+      <c r="Q150">
+        <v>2.14</v>
+      </c>
+      <c r="R150">
+        <v>1.89</v>
+      </c>
+      <c r="S150">
+        <v>2.14</v>
+      </c>
+      <c r="T150">
+        <v>13</v>
+      </c>
+      <c r="U150">
+        <v>22</v>
+      </c>
+      <c r="V150">
+        <v>20</v>
+      </c>
+      <c r="W150">
+        <v>30</v>
+      </c>
+      <c r="X150">
+        <v>5.1</v>
+      </c>
+      <c r="Y150">
+        <v>980</v>
+      </c>
+      <c r="Z150">
+        <v>5.3</v>
+      </c>
+      <c r="AA150">
+        <v>980</v>
+      </c>
+      <c r="AB150">
+        <v>6.8</v>
+      </c>
+      <c r="AC150">
+        <v>10.5</v>
+      </c>
+      <c r="AD150">
+        <v>8.6</v>
+      </c>
+      <c r="AE150">
+        <v>13</v>
+      </c>
+      <c r="AF150">
+        <v>20</v>
+      </c>
+      <c r="AG150">
+        <v>980</v>
+      </c>
+      <c r="AH150">
+        <v>5.2</v>
+      </c>
+      <c r="AI150">
+        <v>980</v>
+      </c>
+      <c r="AJ150">
+        <v>7</v>
+      </c>
+      <c r="AK150">
+        <v>10</v>
+      </c>
+      <c r="AL150">
+        <v>7.6</v>
+      </c>
+      <c r="AM150">
+        <v>12.5</v>
+      </c>
+      <c r="AN150">
         <v>4.6</v>
       </c>
-      <c r="P150">
-        <v>1.12</v>
-      </c>
-      <c r="Q150">
-        <v>20</v>
-      </c>
-      <c r="R150">
-        <v>1.12</v>
-      </c>
-      <c r="S150">
-        <v>20</v>
-      </c>
-      <c r="T150">
-        <v>1.01</v>
-      </c>
-      <c r="U150">
-        <v>1000</v>
-      </c>
-      <c r="V150">
-        <v>1.01</v>
-      </c>
-      <c r="W150">
-        <v>1000</v>
-      </c>
-      <c r="X150">
-        <v>1.01</v>
-      </c>
-      <c r="Y150">
-        <v>1000</v>
-      </c>
-      <c r="Z150">
-        <v>1.01</v>
-      </c>
-      <c r="AA150">
-        <v>1000</v>
-      </c>
-      <c r="AB150">
-        <v>1.01</v>
-      </c>
-      <c r="AC150">
-        <v>1000</v>
-      </c>
-      <c r="AD150">
-        <v>1.01</v>
-      </c>
-      <c r="AE150">
-        <v>1000</v>
-      </c>
-      <c r="AF150">
-        <v>1.01</v>
-      </c>
-      <c r="AG150">
-        <v>1000</v>
-      </c>
-      <c r="AH150">
-        <v>1.01</v>
-      </c>
-      <c r="AI150">
-        <v>1000</v>
-      </c>
-      <c r="AJ150">
-        <v>1.01</v>
-      </c>
-      <c r="AK150">
-        <v>1000</v>
-      </c>
-      <c r="AL150">
-        <v>1.01</v>
-      </c>
-      <c r="AM150">
-        <v>1000</v>
-      </c>
-      <c r="AN150">
-        <v>1.01</v>
-      </c>
       <c r="AO150">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AP150">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="AQ150">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR150">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AS150">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AT150">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AU150">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AV150">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="AW150">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX150">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="AY150">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ150">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="BA150">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="BB150">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="BC150">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD150">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="BE150">
         <v>1000</v>
@@ -31345,157 +31345,157 @@
         <v>463</v>
       </c>
       <c r="F151">
-        <v>1.26</v>
+        <v>3.4</v>
       </c>
       <c r="G151">
-        <v>480</v>
+        <v>3.65</v>
       </c>
       <c r="H151">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="I151">
-        <v>1000</v>
+        <v>2.7</v>
       </c>
       <c r="J151">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="K151">
-        <v>980</v>
+        <v>3.1</v>
       </c>
       <c r="L151">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="M151">
-        <v>960</v>
+        <v>1.54</v>
       </c>
       <c r="N151">
-        <v>1.1</v>
+        <v>2.84</v>
       </c>
       <c r="O151">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="P151">
-        <v>1.11</v>
+        <v>2.2</v>
       </c>
       <c r="Q151">
+        <v>2.4</v>
+      </c>
+      <c r="R151">
+        <v>1.71</v>
+      </c>
+      <c r="S151">
+        <v>1.84</v>
+      </c>
+      <c r="T151">
+        <v>6.8</v>
+      </c>
+      <c r="U151">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="V151">
+        <v>6.8</v>
+      </c>
+      <c r="W151">
+        <v>8</v>
+      </c>
+      <c r="X151">
+        <v>12.5</v>
+      </c>
+      <c r="Y151">
+        <v>16</v>
+      </c>
+      <c r="Z151">
+        <v>8</v>
+      </c>
+      <c r="AA151">
+        <v>44</v>
+      </c>
+      <c r="AB151">
+        <v>8</v>
+      </c>
+      <c r="AC151">
+        <v>9.6</v>
+      </c>
+      <c r="AD151">
+        <v>6</v>
+      </c>
+      <c r="AE151">
+        <v>7.2</v>
+      </c>
+      <c r="AF151">
         <v>11</v>
       </c>
-      <c r="R151">
-        <v>1.14</v>
-      </c>
-      <c r="S151">
-        <v>1.99</v>
-      </c>
-      <c r="T151">
-        <v>1.1</v>
-      </c>
-      <c r="U151">
-        <v>980</v>
-      </c>
-      <c r="V151">
-        <v>1.1</v>
-      </c>
-      <c r="W151">
-        <v>980</v>
-      </c>
-      <c r="X151">
-        <v>1.1</v>
-      </c>
-      <c r="Y151">
-        <v>980</v>
-      </c>
-      <c r="Z151">
-        <v>1.1</v>
-      </c>
-      <c r="AA151">
-        <v>1000</v>
-      </c>
-      <c r="AB151">
-        <v>1.1</v>
-      </c>
-      <c r="AC151">
-        <v>980</v>
-      </c>
-      <c r="AD151">
-        <v>1.1</v>
-      </c>
-      <c r="AE151">
-        <v>980</v>
-      </c>
-      <c r="AF151">
-        <v>1.1</v>
-      </c>
       <c r="AG151">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AH151">
-        <v>1.1</v>
+        <v>7.8</v>
       </c>
       <c r="AI151">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ151">
-        <v>1.1</v>
+        <v>16.5</v>
       </c>
       <c r="AK151">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL151">
-        <v>1.1</v>
+        <v>12.5</v>
       </c>
       <c r="AM151">
         <v>980</v>
       </c>
       <c r="AN151">
-        <v>1.1</v>
+        <v>20</v>
       </c>
       <c r="AO151">
         <v>980</v>
       </c>
       <c r="AP151">
-        <v>1.1</v>
+        <v>8.6</v>
       </c>
       <c r="AQ151">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR151">
-        <v>1.1</v>
+        <v>8.6</v>
       </c>
       <c r="AS151">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT151">
-        <v>1.1</v>
+        <v>8.4</v>
       </c>
       <c r="AU151">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV151">
-        <v>1.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AW151">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX151">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="AY151">
         <v>1000</v>
       </c>
       <c r="AZ151">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="BA151">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB151">
-        <v>1.1</v>
+        <v>6.2</v>
       </c>
       <c r="BC151">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="BD151">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="BE151">
         <v>1000</v>
@@ -31542,160 +31542,160 @@
         <v>464</v>
       </c>
       <c r="F152">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="G152">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H152">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="I152">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="J152">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K152">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="L152">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="M152">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="N152">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="O152">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="P152">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Q152">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R152">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="S152">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="T152">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="U152">
         <v>19</v>
       </c>
       <c r="V152">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="W152">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="X152">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y152">
+        <v>21</v>
+      </c>
+      <c r="Z152">
+        <v>4.7</v>
+      </c>
+      <c r="AA152">
+        <v>44</v>
+      </c>
+      <c r="AB152">
+        <v>11.5</v>
+      </c>
+      <c r="AC152">
+        <v>980</v>
+      </c>
+      <c r="AD152">
+        <v>7.4</v>
+      </c>
+      <c r="AE152">
+        <v>8.6</v>
+      </c>
+      <c r="AF152">
+        <v>10.5</v>
+      </c>
+      <c r="AG152">
+        <v>14.5</v>
+      </c>
+      <c r="AH152">
         <v>22</v>
       </c>
-      <c r="Z152">
-        <v>27</v>
-      </c>
-      <c r="AA152">
-        <v>46</v>
-      </c>
-      <c r="AB152">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC152">
-        <v>16</v>
-      </c>
-      <c r="AD152">
-        <v>6.4</v>
-      </c>
-      <c r="AE152">
-        <v>10.5</v>
-      </c>
-      <c r="AF152">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG152">
-        <v>15</v>
-      </c>
-      <c r="AH152">
-        <v>20</v>
-      </c>
       <c r="AI152">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ152">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AK152">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AL152">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AM152">
         <v>16</v>
       </c>
       <c r="AN152">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO152">
         <v>21</v>
       </c>
       <c r="AP152">
-        <v>27</v>
+        <v>4.7</v>
       </c>
       <c r="AQ152">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AR152">
-        <v>32</v>
+        <v>4.8</v>
       </c>
       <c r="AS152">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AT152">
+        <v>4.6</v>
+      </c>
+      <c r="AU152">
+        <v>980</v>
+      </c>
+      <c r="AV152">
+        <v>4.7</v>
+      </c>
+      <c r="AW152">
+        <v>980</v>
+      </c>
+      <c r="AX152">
+        <v>4.7</v>
+      </c>
+      <c r="AY152">
+        <v>980</v>
+      </c>
+      <c r="AZ152">
+        <v>4.1</v>
+      </c>
+      <c r="BA152">
+        <v>980</v>
+      </c>
+      <c r="BB152">
+        <v>4</v>
+      </c>
+      <c r="BC152">
         <v>23</v>
       </c>
-      <c r="AU152">
-        <v>38</v>
-      </c>
-      <c r="AV152">
-        <v>29</v>
-      </c>
-      <c r="AW152">
-        <v>50</v>
-      </c>
-      <c r="AX152">
-        <v>60</v>
-      </c>
-      <c r="AY152">
-        <v>110</v>
-      </c>
-      <c r="AZ152">
-        <v>1.01</v>
-      </c>
-      <c r="BA152">
-        <v>29</v>
-      </c>
-      <c r="BB152">
-        <v>1.01</v>
-      </c>
-      <c r="BC152">
-        <v>25</v>
-      </c>
       <c r="BD152">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="BE152">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF152">
         <v>33117391</v>
@@ -31739,157 +31739,157 @@
         <v>465</v>
       </c>
       <c r="F153">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="G153">
-        <v>480</v>
+        <v>2.2</v>
       </c>
       <c r="H153">
-        <v>2.64</v>
+        <v>4.2</v>
       </c>
       <c r="I153">
-        <v>17</v>
+        <v>4.7</v>
       </c>
       <c r="J153">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="K153">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="L153">
-        <v>1.27</v>
+        <v>1.59</v>
       </c>
       <c r="M153">
-        <v>980</v>
+        <v>1.7</v>
       </c>
       <c r="N153">
-        <v>1.06</v>
+        <v>2.42</v>
       </c>
       <c r="O153">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="P153">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="Q153">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="R153">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="S153">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="T153">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U153">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="V153">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="W153">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="X153">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y153">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z153">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="AA153">
         <v>1000</v>
       </c>
       <c r="AB153">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="AC153">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD153">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE153">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF153">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG153">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AH153">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="AI153">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ153">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AK153">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL153">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AM153">
         <v>14</v>
       </c>
       <c r="AN153">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AO153">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP153">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="AQ153">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR153">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AS153">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AT153">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU153">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AV153">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="AW153">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX153">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="AY153">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ153">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="BA153">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB153">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="BC153">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD153">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="BE153">
         <v>1000</v>
@@ -31936,160 +31936,160 @@
         <v>466</v>
       </c>
       <c r="F154">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G154">
-        <v>1000</v>
+        <v>2.5</v>
       </c>
       <c r="H154">
-        <v>2.56</v>
+        <v>3</v>
       </c>
       <c r="I154">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="J154">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="K154">
-        <v>330</v>
+        <v>3.75</v>
       </c>
       <c r="L154">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="M154">
-        <v>3</v>
+        <v>2.28</v>
       </c>
       <c r="N154">
-        <v>1.5</v>
+        <v>1.79</v>
       </c>
       <c r="O154">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="P154">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="Q154">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="R154">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="S154">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="T154">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="U154">
         <v>20</v>
       </c>
       <c r="V154">
+        <v>12</v>
+      </c>
+      <c r="W154">
+        <v>17</v>
+      </c>
+      <c r="X154">
+        <v>17</v>
+      </c>
+      <c r="Y154">
+        <v>26</v>
+      </c>
+      <c r="Z154">
+        <v>4.6</v>
+      </c>
+      <c r="AA154">
+        <v>980</v>
+      </c>
+      <c r="AB154">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC154">
+        <v>15</v>
+      </c>
+      <c r="AD154">
+        <v>7.8</v>
+      </c>
+      <c r="AE154">
+        <v>9.4</v>
+      </c>
+      <c r="AF154">
         <v>11.5</v>
       </c>
-      <c r="W154">
-        <v>16.5</v>
-      </c>
-      <c r="X154">
-        <v>15.5</v>
-      </c>
-      <c r="Y154">
-        <v>25</v>
-      </c>
-      <c r="Z154">
-        <v>1.01</v>
-      </c>
-      <c r="AA154">
-        <v>1000</v>
-      </c>
-      <c r="AB154">
-        <v>10.5</v>
-      </c>
-      <c r="AC154">
-        <v>14.5</v>
-      </c>
-      <c r="AD154">
-        <v>7.2</v>
-      </c>
-      <c r="AE154">
-        <v>10</v>
-      </c>
-      <c r="AF154">
-        <v>11</v>
-      </c>
       <c r="AG154">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH154">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI154">
         <v>38</v>
       </c>
       <c r="AJ154">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK154">
         <v>21</v>
       </c>
       <c r="AL154">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AM154">
         <v>14</v>
       </c>
       <c r="AN154">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO154">
+        <v>21</v>
+      </c>
+      <c r="AP154">
+        <v>4.6</v>
+      </c>
+      <c r="AQ154">
+        <v>48</v>
+      </c>
+      <c r="AR154">
+        <v>4.5</v>
+      </c>
+      <c r="AS154">
+        <v>40</v>
+      </c>
+      <c r="AT154">
         <v>20</v>
-      </c>
-      <c r="AP154">
-        <v>1.01</v>
-      </c>
-      <c r="AQ154">
-        <v>46</v>
-      </c>
-      <c r="AR154">
-        <v>26</v>
-      </c>
-      <c r="AS154">
-        <v>1000</v>
-      </c>
-      <c r="AT154">
-        <v>19</v>
       </c>
       <c r="AU154">
         <v>30</v>
       </c>
       <c r="AV154">
-        <v>26</v>
+        <v>4.6</v>
       </c>
       <c r="AW154">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AX154">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="AY154">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ154">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="BA154">
         <v>21</v>
       </c>
       <c r="BB154">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BC154">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD154">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="BE154">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF154">
         <v>33117472</v>
